--- a/biology/Zoologie/Carnarechinus_clypeatus/Carnarechinus_clypeatus.xlsx
+++ b/biology/Zoologie/Carnarechinus_clypeatus/Carnarechinus_clypeatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnarechinus · Carnarechinidae
 Carnarechinus clypeatus est une espèce d'oursins irréguliers de l'ordre  des Holasteroida, le seul de son genre (Carnarechinus) et de sa famille (Carnarechinidae).
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, son genre et sa famille reposent sur un fragment isolé, parcellaire et mal conservé, ce qui rend impossible sa détermination exacte. Cette classification est donc purement indicative, et susceptible de changer avec les nouvelles découvertes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, son genre et sa famille reposent sur un fragment isolé, parcellaire et mal conservé, ce qui rend impossible sa détermination exacte. Cette classification est donc purement indicative, et susceptible de changer avec les nouvelles découvertes.
 </t>
         </is>
       </c>
